--- a/IKXS9J.Beadando/IKXS9J_AlgoritmusFeladat_37.xlsx
+++ b/IKXS9J.Beadando/IKXS9J_AlgoritmusFeladat_37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xy\Documents\GitHub\IKXS9J.OsGyak\IKXS9J.Beadando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boldi\Documents\GitHub\IKXS9J.OsGyak\IKXS9J.Beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{665F2BE9-0F12-4AEA-80C4-6528E11F9352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80D385-BD12-44B2-88B1-F0F93E59132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C16B111-AD34-4F76-B7D2-682B2B1E6CBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C16B111-AD34-4F76-B7D2-682B2B1E6CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -181,20 +181,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -511,21 +511,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FAED4-9ADD-4273-B378-AB4360DFDBBF}">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="22" width="2" bestFit="1" customWidth="1"/>
     <col min="23" max="33" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="L1" s="9"/>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="L1" s="6"/>
       <c r="N1">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,14 +609,14 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -640,21 +640,21 @@
         <f>E3-C3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <f>F3-C3</f>
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -678,20 +678,20 @@
         <f>E4-C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <f>F4-C4</f>
         <v>2</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,27 +715,27 @@
         <f>E5-C5</f>
         <v>4</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f>F5-C5</f>
         <v>9</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -752,31 +752,31 @@
         <v>15</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G4:H7" si="0">E6-C6</f>
+        <f t="shared" ref="G6:G7" si="0">E6-C6</f>
         <v>1</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H4:H7" si="1">E6-C6</f>
+        <f t="shared" ref="H6:H7" si="1">E6-C6</f>
         <v>1</v>
       </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I4:I7" si="2">F6-C6</f>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I7" si="2">F6-C6</f>
         <v>6</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="W6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,81 +800,81 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <f>AVERAGE(H3:H7)</f>
         <v>1.6</v>
       </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f>SUM(D3:D7)+(SUM(G3:G7)/4)</f>
-        <v>22</v>
-      </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <f>SUM(D3:D7)+(SUM(G3:G7)/5)</f>
+        <v>21.6</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <f>AVERAGE(H3:H7)</f>
         <v>1.6</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <f>((SUM(D3:D7)/(F7+0.4))*100)</f>
         <v>98.039215686274517</v>
       </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="L14" s="9"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="L14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
